--- a/hadits_dist_172.xlsx
+++ b/hadits_dist_172.xlsx
@@ -1739,23 +1739,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D517"/>
+  <dimension ref="C2:E517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="A513" activeCellId="5" sqref="A2:XFD2 A10:XFD10 A24:XFD24 A509:XFD509 A516:XFD516 A513:XFD513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1811,15 +1814,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -1923,15 +1929,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>24</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>27</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>30</v>
       </c>
@@ -5707,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C497" t="s">
         <v>442</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C498" t="s">
         <v>443</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C499" t="s">
         <v>444</v>
       </c>
@@ -5731,7 +5740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C500" t="s">
         <v>445</v>
       </c>
@@ -5739,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C501" t="s">
         <v>446</v>
       </c>
@@ -5747,7 +5756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C502" t="s">
         <v>447</v>
       </c>
@@ -5755,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C503" t="s">
         <v>448</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C504" t="s">
         <v>449</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C505" t="s">
         <v>450</v>
       </c>
@@ -5779,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C506" t="s">
         <v>451</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C507" t="s">
         <v>452</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C508" t="s">
         <v>453</v>
       </c>
@@ -5803,15 +5812,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C509" t="s">
         <v>454</v>
       </c>
       <c r="D509">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C510" t="s">
         <v>455</v>
       </c>
@@ -5819,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C511" t="s">
         <v>456</v>
       </c>
@@ -5827,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C512" t="s">
         <v>457</v>
       </c>
@@ -5835,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C513" t="s">
         <v>458</v>
       </c>
@@ -5843,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C514" t="s">
         <v>459</v>
       </c>
@@ -5851,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C515" t="s">
         <v>460</v>
       </c>
@@ -5859,15 +5871,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C516" t="s">
         <v>461</v>
       </c>
       <c r="D516">
         <v>2</v>
       </c>
-    </row>
-    <row r="517" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C517" t="s">
         <v>462</v>
       </c>

--- a/hadits_dist_172.xlsx
+++ b/hadits_dist_172.xlsx
@@ -1739,26 +1739,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E517"/>
+  <dimension ref="C2:D517"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A513" activeCellId="5" sqref="A2:XFD2 A10:XFD10 A24:XFD24 A509:XFD509 A516:XFD516 A513:XFD513"/>
+      <selection activeCell="E493" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1814,18 +1811,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -1833,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -1857,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -1881,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +1883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -1897,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1905,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -1913,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1921,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -1929,18 +1923,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -1948,7 +1939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>24</v>
       </c>
@@ -1956,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -1964,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +1963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>28</v>
       </c>
@@ -1988,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -1996,7 +1987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>30</v>
       </c>
@@ -5716,7 +5707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C497" t="s">
         <v>442</v>
       </c>
@@ -5724,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C498" t="s">
         <v>443</v>
       </c>
@@ -5732,7 +5723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C499" t="s">
         <v>444</v>
       </c>
@@ -5740,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C500" t="s">
         <v>445</v>
       </c>
@@ -5748,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C501" t="s">
         <v>446</v>
       </c>
@@ -5756,7 +5747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C502" t="s">
         <v>447</v>
       </c>
@@ -5764,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C503" t="s">
         <v>448</v>
       </c>
@@ -5772,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C504" t="s">
         <v>449</v>
       </c>
@@ -5780,7 +5771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C505" t="s">
         <v>450</v>
       </c>
@@ -5788,7 +5779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C506" t="s">
         <v>451</v>
       </c>
@@ -5796,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C507" t="s">
         <v>452</v>
       </c>
@@ -5804,7 +5795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C508" t="s">
         <v>453</v>
       </c>
@@ -5812,18 +5803,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C509" t="s">
         <v>454</v>
       </c>
       <c r="D509">
         <v>1</v>
       </c>
-      <c r="E509">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="510" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C510" t="s">
         <v>455</v>
       </c>
@@ -5831,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C511" t="s">
         <v>456</v>
       </c>
@@ -5839,7 +5827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C512" t="s">
         <v>457</v>
       </c>
@@ -5847,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C513" t="s">
         <v>458</v>
       </c>
@@ -5855,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C514" t="s">
         <v>459</v>
       </c>
@@ -5863,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C515" t="s">
         <v>460</v>
       </c>
@@ -5871,18 +5859,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C516" t="s">
         <v>461</v>
       </c>
       <c r="D516">
         <v>2</v>
       </c>
-      <c r="E516">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="517" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C517" t="s">
         <v>462</v>
       </c>
